--- a/Histogramas.xlsx
+++ b/Histogramas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T-Gamer\Documents\Desenvolvimento 2022\Excel Estudos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A801CDF2-EDCD-4244-A68E-2FB4587C448E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB05B8A-EEA0-4AB0-B61E-40BF1CDF848E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{974A9CDB-A8D4-44D5-B349-328615BD7206}"/>
   </bookViews>
@@ -25,12 +25,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Aluno</t>
   </si>
   <si>
     <t>Idade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           Regra de Sturgges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            Intervalos</t>
   </si>
 </sst>
 </file>
@@ -54,7 +60,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -77,15 +83,153 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -400,47 +544,69 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52ABFD2A-0C69-4465-BD9E-80448554E3C2}">
-  <dimension ref="A1:B73"/>
+  <dimension ref="A1:D73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="2">
         <v>37</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" s="7">
+        <f>LOG10(COUNT(B2:B73))*3.3+1</f>
+        <v>7.1291972382231856</v>
+      </c>
+      <c r="D2" s="8"/>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="2">
         <v>34</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="10"/>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" s="3">
+        <f>ROUND((MAX(B2:B73)-MIN(B2:B73))/C2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -448,7 +614,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -456,7 +622,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -464,7 +630,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -472,7 +638,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -480,7 +646,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -488,7 +654,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -496,7 +662,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -504,7 +670,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -512,7 +678,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -520,7 +686,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -528,7 +694,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -993,6 +1159,10 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C4:D4"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/Histogramas.xlsx
+++ b/Histogramas.xlsx
@@ -8,13 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T-Gamer\Documents\Desenvolvimento 2022\Excel Estudos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB05B8A-EEA0-4AB0-B61E-40BF1CDF848E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24D5ACAC-E406-47FC-97CC-141556275623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{974A9CDB-A8D4-44D5-B349-328615BD7206}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Planilha1!$B$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Planilha1!$B$2:$B$73</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Planilha1!$B$1</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Planilha1!$B$2:$B$73</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Planilha1!$B$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Planilha1!$B$2:$B$73</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Planilha1!$B$1</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Planilha1!$B$2:$B$73</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -212,24 +222,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -245,6 +255,738 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.1</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Histograma Idade</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Histograma Idade</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:plotSurface>
+          <cx:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="101600" dist="2540000" dir="16200000" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="0"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </cx:spPr>
+        </cx:plotSurface>
+        <cx:series layoutId="clusteredColumn" uniqueId="{8C5717CF-A28D-42C8-9264-6E8127EC377D}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:v>Idade</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r" underflow="auto">
+              <cx:binSize val="3"/>
+            </cx:binning>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+  <cx:spPr>
+    <a:ln>
+      <a:solidFill>
+        <a:schemeClr val="tx2">
+          <a:lumMod val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </a:ln>
+  </cx:spPr>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="18">
+  <a:schemeClr val="accent5"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="369">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:lumOff val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" cap="none" spc="20"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Gráfico 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFA2D20D-9E82-4ED2-964E-5A8242C61D6E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1333500" y="976312"/>
+              <a:ext cx="4381500" cy="2243138"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pt-BR" sz="1100"/>
+                <a:t>Este gráfico não está disponível na sua versão de Excel.
+Editar esta forma ou salvar esta pasta de trabalho em um formato de arquivo diferente quebrará o gráfico permanentemente.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -547,7 +1289,7 @@
   <dimension ref="A1:D73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -563,10 +1305,10 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6"/>
+      <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
@@ -588,10 +1330,10 @@
       <c r="B3" s="2">
         <v>34</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="10"/>
+      <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
@@ -600,11 +1342,11 @@
       <c r="B4" s="2">
         <v>18</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="9">
         <f>ROUND((MAX(B2:B73)-MIN(B2:B73))/C2,0)</f>
         <v>3</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="10"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -1164,5 +1906,6 @@
     <mergeCell ref="C4:D4"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Histogramas.xlsx
+++ b/Histogramas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T-Gamer\Documents\Desenvolvimento 2022\Excel Estudos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24D5ACAC-E406-47FC-97CC-141556275623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1C33EA8-F02E-4BD4-8A78-DB2DE73A9FFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{974A9CDB-A8D4-44D5-B349-328615BD7206}"/>
   </bookViews>
@@ -18,12 +18,6 @@
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Planilha1!$B$1</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Planilha1!$B$2:$B$73</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Planilha1!$B$1</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Planilha1!$B$2:$B$73</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Planilha1!$B$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Planilha1!$B$2:$B$73</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Planilha1!$B$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Planilha1!$B$2:$B$73</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -910,16 +904,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -955,7 +949,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1333500" y="976312"/>
+              <a:off x="3867150" y="33337"/>
               <a:ext cx="4381500" cy="2243138"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1289,7 +1283,7 @@
   <dimension ref="A1:D73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
